--- a/2020/March/Others/Allocation Sheet.xlsx
+++ b/2020/March/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>BL60</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>MD ROBIUL ISLAM</t>
+  </si>
+  <si>
+    <t>i30</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +661,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +863,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -977,6 +1004,81 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,77 +1091,35 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1082,36 +1142,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1512,7 +1547,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2612,7 +2647,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3058,7 +3093,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3129,7 +3164,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3203,7 +3238,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3274,7 +3309,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3937,7 +3972,7 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="O54" sqref="A1:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3959,68 +3994,68 @@
     <col min="16" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="58" t="s">
+    <row r="1" spans="1:21" ht="32.25" customHeight="1">
+      <c r="A1" s="76"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="54" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
@@ -4065,7 +4100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1">
+    <row r="5" spans="1:21" ht="19.5" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>95</v>
       </c>
@@ -4081,20 +4116,20 @@
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="41" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="J5" s="42">
-        <v>2780</v>
+        <v>5170</v>
       </c>
       <c r="K5" s="34">
-        <v>2990</v>
+        <v>5499</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1">
+    <row r="6" spans="1:21" ht="19.5" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>39</v>
       </c>
@@ -4123,7 +4158,7 @@
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1">
+    <row r="7" spans="1:21" ht="19.5" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>51</v>
       </c>
@@ -4151,8 +4186,10 @@
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="S7" s="104"/>
+      <c r="U7" s="103"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
@@ -4180,16 +4217,17 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="40">
-        <v>800</v>
+      <c r="T8" s="101"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="53">
+        <v>740</v>
       </c>
       <c r="C9" s="34">
-        <v>860</v>
+        <v>790</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -4209,16 +4247,18 @@
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="S9" s="102"/>
+      <c r="U9" s="100"/>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B10" s="40">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="C10" s="34">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -4239,15 +4279,15 @@
       <c r="N10" s="34"/>
       <c r="O10" s="34"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+    <row r="11" spans="1:21" ht="19.5" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B11" s="40">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C11" s="34">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -4268,15 +4308,15 @@
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+    <row r="12" spans="1:21" ht="19.5" customHeight="1">
       <c r="A12" s="39" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B12" s="40">
-        <v>915</v>
+        <v>800</v>
       </c>
       <c r="C12" s="34">
-        <v>990</v>
+        <v>860</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -4297,15 +4337,15 @@
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+    <row r="13" spans="1:21" ht="19.5" customHeight="1">
       <c r="A13" s="39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="40">
-        <v>890</v>
+        <v>970</v>
       </c>
       <c r="C13" s="34">
-        <v>970</v>
+        <v>1060</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4326,15 +4366,15 @@
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1">
       <c r="A14" s="39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="40">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C14" s="34">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4355,15 +4395,15 @@
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:21" ht="19.5" customHeight="1">
       <c r="A15" s="39" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B15" s="40">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C15" s="34">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -4384,15 +4424,15 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1">
+    <row r="16" spans="1:21" ht="19.5" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B16" s="40">
-        <v>845</v>
+        <v>920</v>
       </c>
       <c r="C16" s="34">
-        <v>910</v>
+        <v>999</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -4415,13 +4455,13 @@
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1">
       <c r="A17" s="39" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" s="40">
-        <v>970</v>
+        <v>880</v>
       </c>
       <c r="C17" s="34">
-        <v>1060</v>
+        <v>950</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -4429,13 +4469,13 @@
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="43">
-        <v>3560</v>
+        <v>126</v>
+      </c>
+      <c r="J17" s="42">
+        <v>3610</v>
       </c>
       <c r="K17" s="34">
-        <v>3840</v>
+        <v>3890</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -4444,27 +4484,27 @@
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1">
       <c r="A18" s="39" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B18" s="40">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="C18" s="34">
-        <v>1090</v>
+        <v>910</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="43">
-        <v>3340</v>
+      <c r="I18" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="42">
+        <v>3890</v>
       </c>
       <c r="K18" s="34">
-        <v>3590</v>
+        <v>4190</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -4472,28 +4512,28 @@
       <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="40">
-        <v>995</v>
+      <c r="A19" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="53">
+        <v>820</v>
       </c>
       <c r="C19" s="34">
-        <v>1075</v>
+        <v>890</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="42">
-        <v>4500</v>
+      <c r="I19" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="43">
+        <v>4280</v>
       </c>
       <c r="K19" s="34">
-        <v>4790</v>
+        <v>4590</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -4502,13 +4542,13 @@
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1">
       <c r="A20" s="39" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="40">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="34">
-        <v>950</v>
+        <v>1090</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -4516,13 +4556,13 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J20" s="42">
-        <v>3710</v>
+        <v>5020</v>
       </c>
       <c r="K20" s="34">
-        <v>3990</v>
+        <v>5390</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -4531,27 +4571,27 @@
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1">
       <c r="A21" s="39" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B21" s="40">
-        <v>900</v>
+        <v>995</v>
       </c>
       <c r="C21" s="34">
-        <v>970</v>
+        <v>1075</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="42">
-        <v>3620</v>
+      <c r="I21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="43">
+        <v>5280</v>
       </c>
       <c r="K21" s="34">
-        <v>3890</v>
+        <v>5690</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -4560,27 +4600,27 @@
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1">
       <c r="A22" s="39" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B22" s="40">
-        <v>1040</v>
+        <v>880</v>
       </c>
       <c r="C22" s="34">
-        <v>1120</v>
+        <v>950</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="41" t="s">
-        <v>54</v>
+      <c r="I22" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="J22" s="42">
-        <v>4080</v>
+        <v>4180</v>
       </c>
       <c r="K22" s="34">
-        <v>4390</v>
+        <v>4690</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
@@ -4589,27 +4629,27 @@
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1">
       <c r="A23" s="39" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B23" s="40">
-        <v>1040</v>
+        <v>900</v>
       </c>
       <c r="C23" s="34">
-        <v>1120</v>
+        <v>970</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="43">
-        <v>4220</v>
+      <c r="I23" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="42">
+        <v>5100</v>
       </c>
       <c r="K23" s="34">
-        <v>4540</v>
+        <v>5490</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -4618,13 +4658,13 @@
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B24" s="40">
-        <v>930</v>
+        <v>1040</v>
       </c>
       <c r="C24" s="34">
-        <v>999</v>
+        <v>1120</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -4632,13 +4672,13 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="43">
-        <v>3710</v>
+        <v>36</v>
+      </c>
+      <c r="J24" s="42">
+        <v>5390</v>
       </c>
       <c r="K24" s="34">
-        <v>3990</v>
+        <v>5790</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
@@ -4647,13 +4687,13 @@
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B25" s="40">
-        <v>1190</v>
+        <v>1040</v>
       </c>
       <c r="C25" s="34">
-        <v>1290</v>
+        <v>1120</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -4661,13 +4701,13 @@
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="41" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J25" s="43">
-        <v>4280</v>
+        <v>3560</v>
       </c>
       <c r="K25" s="34">
-        <v>4590</v>
+        <v>3840</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
@@ -4676,27 +4716,27 @@
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1">
       <c r="A26" s="39" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B26" s="40">
-        <v>1170</v>
+        <v>930</v>
       </c>
       <c r="C26" s="34">
-        <v>1270</v>
+        <v>999</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="42">
-        <v>5020</v>
+      <c r="I26" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="43">
+        <v>3340</v>
       </c>
       <c r="K26" s="34">
-        <v>5390</v>
+        <v>3590</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
@@ -4709,7 +4749,7 @@
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B27" s="40">
         <v>1190</v>
@@ -4723,13 +4763,13 @@
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="43">
-        <v>5280</v>
+        <v>91</v>
+      </c>
+      <c r="J27" s="42">
+        <v>4500</v>
       </c>
       <c r="K27" s="34">
-        <v>5690</v>
+        <v>4790</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -4742,27 +4782,27 @@
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B28" s="40">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="C28" s="34">
-        <v>1160</v>
+        <v>1270</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="39" t="s">
-        <v>99</v>
+      <c r="I28" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="J28" s="42">
-        <v>4180</v>
+        <v>3710</v>
       </c>
       <c r="K28" s="34">
-        <v>4690</v>
+        <v>3990</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -4775,13 +4815,13 @@
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1">
       <c r="A29" s="39" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B29" s="40">
-        <v>1100</v>
+        <v>1190</v>
       </c>
       <c r="C29" s="34">
-        <v>1199</v>
+        <v>1290</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -4789,13 +4829,13 @@
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="41" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J29" s="42">
-        <v>5100</v>
+        <v>3620</v>
       </c>
       <c r="K29" s="34">
-        <v>5490</v>
+        <v>3890</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -4807,14 +4847,14 @@
       <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="40">
-        <v>1010</v>
+      <c r="A30" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="53">
+        <v>2780</v>
       </c>
       <c r="C30" s="34">
-        <v>1110</v>
+        <v>2990</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -4822,13 +4862,13 @@
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="41" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J30" s="42">
-        <v>5390</v>
+        <v>4080</v>
       </c>
       <c r="K30" s="34">
-        <v>5790</v>
+        <v>4390</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
@@ -4836,28 +4876,28 @@
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A31" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="40">
-        <v>1040</v>
+      <c r="A31" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="53">
+        <v>1220</v>
       </c>
       <c r="C31" s="34">
-        <v>1130</v>
+        <v>1320</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" s="42">
-        <v>3610</v>
+      <c r="I31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="43">
+        <v>4220</v>
       </c>
       <c r="K31" s="34">
-        <v>3890</v>
+        <v>4540</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
@@ -4865,14 +4905,14 @@
       <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="40">
-        <v>970</v>
+      <c r="A32" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="53">
+        <v>1070</v>
       </c>
       <c r="C32" s="34">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -4880,13 +4920,13 @@
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="J32" s="42">
-        <v>3890</v>
+        <v>118</v>
+      </c>
+      <c r="J32" s="43">
+        <v>3710</v>
       </c>
       <c r="K32" s="34">
-        <v>4190</v>
+        <v>3990</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -4895,13 +4935,13 @@
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="39" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B33" s="40">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="C33" s="34">
-        <v>1199</v>
+        <v>1160</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -4924,13 +4964,13 @@
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B34" s="40">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="C34" s="34">
-        <v>1130</v>
+        <v>1199</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -4952,14 +4992,14 @@
       <c r="O34" s="34"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="40">
-        <v>1130</v>
+      <c r="A35" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="53">
+        <v>1160</v>
       </c>
       <c r="C35" s="34">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -4982,13 +5022,13 @@
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B36" s="40">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="C36" s="34">
-        <v>1190</v>
+        <v>1110</v>
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -5011,27 +5051,27 @@
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
       <c r="A37" s="39" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B37" s="40">
-        <v>1330</v>
+        <v>1040</v>
       </c>
       <c r="C37" s="34">
-        <v>1450</v>
+        <v>1130</v>
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="53"/>
+      <c r="J37" s="78"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" hidden="1" customHeight="1">
@@ -5049,48 +5089,48 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="34">
-        <v>1220</v>
+      <c r="A39" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="40">
+        <v>970</v>
       </c>
       <c r="C39" s="34">
-        <v>1320</v>
+        <v>1050</v>
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="55"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="80"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A40" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="34">
-        <v>1070</v>
+      <c r="A40" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="40">
+        <v>1100</v>
       </c>
       <c r="C40" s="34">
-        <v>1160</v>
+        <v>1199</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
@@ -5103,23 +5143,23 @@
       <c r="J40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="53" t="s">
+      <c r="K40" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="56"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="81"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="34">
-        <v>1160</v>
+      <c r="A41" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="40">
+        <v>1050</v>
       </c>
       <c r="C41" s="34">
-        <v>1250</v>
+        <v>1130</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
@@ -5134,17 +5174,17 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="56"/>
+      <c r="O41" s="81"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A42" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="34">
-        <v>1190</v>
+      <c r="A42" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="40">
+        <v>1130</v>
       </c>
       <c r="C42" s="34">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -5159,13 +5199,13 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="56"/>
+      <c r="O42" s="81"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A43" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="34">
+      <c r="A43" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="40">
         <v>1100</v>
       </c>
       <c r="C43" s="34">
@@ -5184,17 +5224,17 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="56"/>
+      <c r="O43" s="81"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A44" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="34">
-        <v>1250</v>
+      <c r="A44" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="40">
+        <v>1330</v>
       </c>
       <c r="C44" s="34">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
@@ -5209,17 +5249,17 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="56"/>
+      <c r="O44" s="81"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A45" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="46">
-        <v>1370</v>
-      </c>
-      <c r="C45" s="46">
-        <v>1490</v>
+      <c r="A45" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="53">
+        <v>1190</v>
+      </c>
+      <c r="C45" s="53">
+        <v>1290</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
@@ -5234,17 +5274,17 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="56"/>
+      <c r="O45" s="81"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="44" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B46" s="34">
-        <v>820</v>
+        <v>1100</v>
       </c>
       <c r="C46" s="34">
-        <v>890</v>
+        <v>1190</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
@@ -5259,17 +5299,17 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="56"/>
+      <c r="O46" s="81"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="44" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B47" s="34">
-        <v>740</v>
+        <v>1250</v>
       </c>
       <c r="C47" s="34">
-        <v>790</v>
+        <v>1350</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -5284,12 +5324,18 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="56"/>
+      <c r="O47" s="81"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
+      <c r="A48" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="46">
+        <v>1370</v>
+      </c>
+      <c r="C48" s="46">
+        <v>1490</v>
+      </c>
       <c r="D48" s="34"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
@@ -5303,7 +5349,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
-      <c r="O48" s="56"/>
+      <c r="O48" s="81"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1">
       <c r="A49" s="39"/>
@@ -5322,47 +5368,47 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
-      <c r="O49" s="57"/>
+      <c r="O49" s="82"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="68" t="s">
+      <c r="E50" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="70" t="s">
+      <c r="M50" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="70"/>
-      <c r="O50" s="71"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="61"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="73"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="63"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="48"/>
@@ -5382,27 +5428,27 @@
       <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="51"/>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
-      <c r="G53" s="76" t="s">
+      <c r="G53" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="77"/>
-      <c r="I53" s="78"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="L53" s="51"/>
-      <c r="M53" s="75" t="s">
+      <c r="M53" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="52"/>
@@ -5411,9 +5457,9 @@
       <c r="D54" s="51"/>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="81"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="51"/>
@@ -5425,19 +5471,10 @@
       <c r="P58" s="30"/>
     </row>
   </sheetData>
+  <sortState ref="I6:K36">
+    <sortCondition ref="I6:I36"/>
+  </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="E50:K51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="A2:O2"/>
@@ -5445,6 +5482,18 @@
     <mergeCell ref="I39:N39"/>
     <mergeCell ref="O39:O49"/>
     <mergeCell ref="K40:N40"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="G53:I54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5481,73 +5530,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="84" t="s">
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5555,12 +5604,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6664,14 +6713,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="89" t="s">
+      <c r="I44" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="90"/>
+      <c r="J44" s="88"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6689,13 +6738,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6712,15 +6761,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="91" t="s">
+      <c r="I46" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="92"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="90"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6743,13 +6792,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="89" t="s">
+      <c r="K47" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="93"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="91"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6774,7 +6823,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="93"/>
+      <c r="O48" s="91"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6799,7 +6848,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="93"/>
+      <c r="O49" s="91"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6824,7 +6873,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="93"/>
+      <c r="O50" s="91"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6849,7 +6898,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="93"/>
+      <c r="O51" s="91"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6874,7 +6923,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="93"/>
+      <c r="O52" s="91"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6899,7 +6948,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="93"/>
+      <c r="O53" s="91"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6924,7 +6973,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="93"/>
+      <c r="O54" s="91"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6949,7 +6998,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="93"/>
+      <c r="O55" s="91"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6974,7 +7023,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="94"/>
+      <c r="O56" s="92"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6994,49 +7043,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="98" t="s">
+      <c r="F58" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="98"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="98"/>
-      <c r="J58" s="98"/>
-      <c r="K58" s="98"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="96" t="s">
+      <c r="N58" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="96"/>
+      <c r="O58" s="84"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="86"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7047,15 +7096,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="97"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7066,11 +7115,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="A59:C60"/>
@@ -7078,19 +7140,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="F58:K59"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
